--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/RPSG VENTURES Ltd/Pruned_Excel/Final_Parameters/Semi_Final/RPSG VENTURES Ltd_Semi_Final.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/RPSG VENTURES Ltd/Pruned_Excel/Final_Parameters/Semi_Final/RPSG VENTURES Ltd_Semi_Final.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="103">
   <si>
     <t>Balance Sheet of RPSG VENTURES(in Rs. Cr.)</t>
   </si>
@@ -170,6 +170,12 @@
     <t>Quarterly Results of RPSG VENTURES(in Rs. Cr.)</t>
   </si>
   <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Quarter</t>
+  </si>
+  <si>
     <t>Net sales/income from operations</t>
   </si>
   <si>
@@ -224,79 +230,49 @@
     <t>Diluted eps.</t>
   </si>
   <si>
-    <t>Sep 18 Q2</t>
-  </si>
-  <si>
-    <t>Dec 18 Q3</t>
-  </si>
-  <si>
-    <t>Mar 19 Q4</t>
-  </si>
-  <si>
-    <t>Jun 19 Q1</t>
-  </si>
-  <si>
-    <t>Sep 19 Q2</t>
-  </si>
-  <si>
-    <t>Dec 19 Q3</t>
-  </si>
-  <si>
-    <t>Mar 20 Q4</t>
-  </si>
-  <si>
-    <t>Jun 20 Q1</t>
-  </si>
-  <si>
-    <t>Sep 20 Q2</t>
-  </si>
-  <si>
-    <t>Dec 20 Q3</t>
-  </si>
-  <si>
-    <t>Mar 21 Q4</t>
-  </si>
-  <si>
-    <t>Jun 21 Q1</t>
-  </si>
-  <si>
-    <t>Sep 21 Q2</t>
-  </si>
-  <si>
-    <t>Dec 21 Q3</t>
-  </si>
-  <si>
-    <t>Mar 22 Q4</t>
-  </si>
-  <si>
-    <t>Jun 22 Q1</t>
-  </si>
-  <si>
-    <t>Sep 22 Q2</t>
-  </si>
-  <si>
-    <t>Dec 22 Q3</t>
-  </si>
-  <si>
-    <t>Mar 23 Q4</t>
-  </si>
-  <si>
-    <t>Jun 23 Q1</t>
-  </si>
-  <si>
-    <t>Sep 23 Q2</t>
-  </si>
-  <si>
-    <t>Dec 23 Q3</t>
-  </si>
-  <si>
-    <t>Mar 24 Q4</t>
-  </si>
-  <si>
-    <t>Jun 24 Q1</t>
-  </si>
-  <si>
-    <t>Sep 24 Q2</t>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>Q1</t>
   </si>
   <si>
     <t>Key Financial Ratios of RPSG VENTURES(in Rs. Cr.)</t>
@@ -1575,13 +1551,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U26"/>
+  <dimension ref="A1:W26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
         <v>49</v>
       </c>
@@ -1598,19 +1574,19 @@
         <v>53</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>57</v>
@@ -1645,37 +1621,43 @@
       <c r="U1" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="2" spans="1:21">
+      <c r="V1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2">
+        <v>70</v>
+      </c>
+      <c r="B2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2">
         <v>15.35</v>
       </c>
-      <c r="C2">
+      <c r="E2">
         <v>15.35</v>
       </c>
-      <c r="D2">
+      <c r="F2">
         <v>3.31</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
         <v>9.32</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>2.72</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <v>57.59</v>
-      </c>
-      <c r="I2">
-        <v>60.31</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
       </c>
       <c r="K2">
         <v>60.31</v>
@@ -1687,22 +1669,22 @@
         <v>60.31</v>
       </c>
       <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>60.31</v>
+      </c>
+      <c r="P2">
         <v>1.85</v>
       </c>
-      <c r="O2">
+      <c r="Q2">
         <v>58.46</v>
       </c>
-      <c r="P2">
+      <c r="R2">
         <v>58.46</v>
       </c>
-      <c r="Q2">
+      <c r="S2">
         <v>26.51</v>
-      </c>
-      <c r="R2">
-        <v>22.05</v>
-      </c>
-      <c r="S2">
-        <v>22.05</v>
       </c>
       <c r="T2">
         <v>22.05</v>
@@ -1710,37 +1692,43 @@
       <c r="U2">
         <v>22.05</v>
       </c>
-    </row>
-    <row r="3" spans="1:21">
+      <c r="V2">
+        <v>22.05</v>
+      </c>
+      <c r="W2">
+        <v>22.05</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3">
+        <v>70</v>
+      </c>
+      <c r="B3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3">
         <v>15.35</v>
       </c>
-      <c r="C3">
+      <c r="E3">
         <v>15.35</v>
       </c>
-      <c r="D3">
+      <c r="F3">
         <v>3.47</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>9.890000000000001</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>1.99</v>
       </c>
-      <c r="H3">
+      <c r="J3">
         <v>2.14</v>
-      </c>
-      <c r="I3">
-        <v>4.13</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
       </c>
       <c r="K3">
         <v>4.13</v>
@@ -1752,22 +1740,22 @@
         <v>4.13</v>
       </c>
       <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>4.13</v>
+      </c>
+      <c r="P3">
         <v>0.99</v>
       </c>
-      <c r="O3">
+      <c r="Q3">
         <v>3.14</v>
       </c>
-      <c r="P3">
+      <c r="R3">
         <v>3.14</v>
       </c>
-      <c r="Q3">
+      <c r="S3">
         <v>26.51</v>
-      </c>
-      <c r="R3">
-        <v>1.19</v>
-      </c>
-      <c r="S3">
-        <v>1.19</v>
       </c>
       <c r="T3">
         <v>1.19</v>
@@ -1775,37 +1763,43 @@
       <c r="U3">
         <v>1.19</v>
       </c>
-    </row>
-    <row r="4" spans="1:21">
+      <c r="V3">
+        <v>1.19</v>
+      </c>
+      <c r="W3">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B4">
+        <v>71</v>
+      </c>
+      <c r="B4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4">
         <v>16.55</v>
       </c>
-      <c r="C4">
+      <c r="E4">
         <v>16.55</v>
       </c>
-      <c r="D4">
+      <c r="F4">
         <v>6.06</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>4.46</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>6.03</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <v>1.4</v>
-      </c>
-      <c r="I4">
-        <v>7.43</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
       </c>
       <c r="K4">
         <v>7.43</v>
@@ -1817,22 +1811,22 @@
         <v>7.43</v>
       </c>
       <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>7.43</v>
+      </c>
+      <c r="P4">
         <v>4.91</v>
       </c>
-      <c r="O4">
+      <c r="Q4">
         <v>2.52</v>
       </c>
-      <c r="P4">
+      <c r="R4">
         <v>2.52</v>
       </c>
-      <c r="Q4">
+      <c r="S4">
         <v>26.51</v>
-      </c>
-      <c r="R4">
-        <v>0.95</v>
-      </c>
-      <c r="S4">
-        <v>0.95</v>
       </c>
       <c r="T4">
         <v>0.95</v>
@@ -1840,37 +1834,43 @@
       <c r="U4">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="5" spans="1:21">
+      <c r="V4">
+        <v>0.95</v>
+      </c>
+      <c r="W4">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" t="s">
         <v>71</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5">
         <v>15.35</v>
       </c>
-      <c r="C5">
+      <c r="E5">
         <v>15.35</v>
       </c>
-      <c r="D5">
+      <c r="F5">
         <v>4.56</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>8.359999999999999</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>2.43</v>
       </c>
-      <c r="H5">
+      <c r="J5">
         <v>0.64</v>
-      </c>
-      <c r="I5">
-        <v>3.07</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
       </c>
       <c r="K5">
         <v>3.07</v>
@@ -1882,22 +1882,22 @@
         <v>3.07</v>
       </c>
       <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>3.07</v>
+      </c>
+      <c r="P5">
         <v>0.92</v>
       </c>
-      <c r="O5">
+      <c r="Q5">
         <v>2.15</v>
       </c>
-      <c r="P5">
+      <c r="R5">
         <v>2.15</v>
       </c>
-      <c r="Q5">
+      <c r="S5">
         <v>26.51</v>
-      </c>
-      <c r="R5">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="S5">
-        <v>0.8100000000000001</v>
       </c>
       <c r="T5">
         <v>0.8100000000000001</v>
@@ -1905,37 +1905,43 @@
       <c r="U5">
         <v>0.8100000000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:21">
+      <c r="V5">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="W5">
+        <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6">
+        <v>71</v>
+      </c>
+      <c r="B6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6">
         <v>15.35</v>
       </c>
-      <c r="C6">
+      <c r="E6">
         <v>15.35</v>
       </c>
-      <c r="D6">
+      <c r="F6">
         <v>6.88</v>
       </c>
-      <c r="E6">
+      <c r="G6">
         <v>0.01</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <v>9.470000000000001</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <v>-1.01</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <v>75.43000000000001</v>
-      </c>
-      <c r="I6">
-        <v>74.42</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
       </c>
       <c r="K6">
         <v>74.42</v>
@@ -1947,22 +1953,22 @@
         <v>74.42</v>
       </c>
       <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>74.42</v>
+      </c>
+      <c r="P6">
         <v>-0.2</v>
       </c>
-      <c r="O6">
+      <c r="Q6">
         <v>74.62</v>
       </c>
-      <c r="P6">
+      <c r="R6">
         <v>74.62</v>
       </c>
-      <c r="Q6">
+      <c r="S6">
         <v>26.51</v>
-      </c>
-      <c r="R6">
-        <v>28.15</v>
-      </c>
-      <c r="S6">
-        <v>28.15</v>
       </c>
       <c r="T6">
         <v>28.15</v>
@@ -1970,37 +1976,43 @@
       <c r="U6">
         <v>28.15</v>
       </c>
-    </row>
-    <row r="7" spans="1:21">
+      <c r="V6">
+        <v>28.15</v>
+      </c>
+      <c r="W6">
+        <v>28.15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B7">
+        <v>71</v>
+      </c>
+      <c r="B7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7">
         <v>15.35</v>
       </c>
-      <c r="C7">
+      <c r="E7">
         <v>15.35</v>
       </c>
-      <c r="D7">
+      <c r="F7">
         <v>5.21</v>
       </c>
-      <c r="E7">
+      <c r="G7">
         <v>0.01</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <v>7.11</v>
       </c>
-      <c r="G7">
+      <c r="I7">
         <v>3.02</v>
       </c>
-      <c r="H7">
+      <c r="J7">
         <v>0.68</v>
-      </c>
-      <c r="I7">
-        <v>3.7</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
       </c>
       <c r="K7">
         <v>3.7</v>
@@ -2012,22 +2024,22 @@
         <v>3.7</v>
       </c>
       <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>3.7</v>
+      </c>
+      <c r="P7">
         <v>0.84</v>
       </c>
-      <c r="O7">
+      <c r="Q7">
         <v>2.86</v>
       </c>
-      <c r="P7">
+      <c r="R7">
         <v>2.86</v>
       </c>
-      <c r="Q7">
+      <c r="S7">
         <v>26.51</v>
-      </c>
-      <c r="R7">
-        <v>1.08</v>
-      </c>
-      <c r="S7">
-        <v>1.08</v>
       </c>
       <c r="T7">
         <v>1.08</v>
@@ -2035,37 +2047,43 @@
       <c r="U7">
         <v>1.08</v>
       </c>
-    </row>
-    <row r="8" spans="1:21">
+      <c r="V7">
+        <v>1.08</v>
+      </c>
+      <c r="W7">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B8">
+        <v>72</v>
+      </c>
+      <c r="B8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8">
         <v>17.85</v>
       </c>
-      <c r="C8">
+      <c r="E8">
         <v>17.85</v>
       </c>
-      <c r="D8">
+      <c r="F8">
         <v>9.390000000000001</v>
       </c>
-      <c r="E8">
+      <c r="G8">
         <v>0.05</v>
       </c>
-      <c r="F8">
+      <c r="H8">
         <v>7.23</v>
       </c>
-      <c r="G8">
+      <c r="I8">
         <v>1.18</v>
       </c>
-      <c r="H8">
+      <c r="J8">
         <v>93.41</v>
-      </c>
-      <c r="I8">
-        <v>94.59</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
       </c>
       <c r="K8">
         <v>94.59</v>
@@ -2077,22 +2095,22 @@
         <v>94.59</v>
       </c>
       <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>94.59</v>
+      </c>
+      <c r="P8">
         <v>-0.07000000000000001</v>
       </c>
-      <c r="O8">
+      <c r="Q8">
         <v>94.66</v>
       </c>
-      <c r="P8">
+      <c r="R8">
         <v>94.66</v>
       </c>
-      <c r="Q8">
+      <c r="S8">
         <v>26.51</v>
-      </c>
-      <c r="R8">
-        <v>35.71</v>
-      </c>
-      <c r="S8">
-        <v>35.71</v>
       </c>
       <c r="T8">
         <v>35.71</v>
@@ -2100,37 +2118,43 @@
       <c r="U8">
         <v>35.71</v>
       </c>
-    </row>
-    <row r="9" spans="1:21">
+      <c r="V8">
+        <v>35.71</v>
+      </c>
+      <c r="W8">
+        <v>35.71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B9">
+        <v>72</v>
+      </c>
+      <c r="B9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9">
         <v>15.35</v>
       </c>
-      <c r="C9">
+      <c r="E9">
         <v>15.35</v>
       </c>
-      <c r="D9">
+      <c r="F9">
         <v>8.31</v>
       </c>
-      <c r="E9">
+      <c r="G9">
         <v>0.09</v>
       </c>
-      <c r="F9">
+      <c r="H9">
         <v>5.85</v>
       </c>
-      <c r="G9">
+      <c r="I9">
         <v>1.1</v>
       </c>
-      <c r="H9">
+      <c r="J9">
         <v>0.75</v>
-      </c>
-      <c r="I9">
-        <v>1.85</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
       </c>
       <c r="K9">
         <v>1.85</v>
@@ -2142,22 +2166,22 @@
         <v>1.85</v>
       </c>
       <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>1.85</v>
+      </c>
+      <c r="P9">
         <v>0.46</v>
       </c>
-      <c r="O9">
+      <c r="Q9">
         <v>1.39</v>
       </c>
-      <c r="P9">
+      <c r="R9">
         <v>1.39</v>
       </c>
-      <c r="Q9">
+      <c r="S9">
         <v>26.51</v>
-      </c>
-      <c r="R9">
-        <v>0.52</v>
-      </c>
-      <c r="S9">
-        <v>0.52</v>
       </c>
       <c r="T9">
         <v>0.52</v>
@@ -2165,37 +2189,43 @@
       <c r="U9">
         <v>0.52</v>
       </c>
-    </row>
-    <row r="10" spans="1:21">
+      <c r="V9">
+        <v>0.52</v>
+      </c>
+      <c r="W9">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B10">
+        <v>72</v>
+      </c>
+      <c r="B10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10">
         <v>18.35</v>
       </c>
-      <c r="C10">
+      <c r="E10">
         <v>18.35</v>
       </c>
-      <c r="D10">
+      <c r="F10">
         <v>7.44</v>
       </c>
-      <c r="E10">
+      <c r="G10">
         <v>0.14</v>
       </c>
-      <c r="F10">
+      <c r="H10">
         <v>9.07</v>
       </c>
-      <c r="G10">
+      <c r="I10">
         <v>1.7</v>
       </c>
-      <c r="H10">
+      <c r="J10">
         <v>1.01</v>
-      </c>
-      <c r="I10">
-        <v>2.71</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
       </c>
       <c r="K10">
         <v>2.71</v>
@@ -2207,22 +2237,22 @@
         <v>2.71</v>
       </c>
       <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>2.71</v>
+      </c>
+      <c r="P10">
         <v>0.65</v>
       </c>
-      <c r="O10">
+      <c r="Q10">
         <v>2.06</v>
       </c>
-      <c r="P10">
+      <c r="R10">
         <v>2.06</v>
       </c>
-      <c r="Q10">
+      <c r="S10">
         <v>26.51</v>
-      </c>
-      <c r="R10">
-        <v>0.78</v>
-      </c>
-      <c r="S10">
-        <v>0.78</v>
       </c>
       <c r="T10">
         <v>0.78</v>
@@ -2230,37 +2260,43 @@
       <c r="U10">
         <v>0.78</v>
       </c>
-    </row>
-    <row r="11" spans="1:21">
+      <c r="V10">
+        <v>0.78</v>
+      </c>
+      <c r="W10">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" t="s">
-        <v>77</v>
-      </c>
-      <c r="B11">
+        <v>72</v>
+      </c>
+      <c r="B11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11">
         <v>15.35</v>
       </c>
-      <c r="C11">
+      <c r="E11">
         <v>15.35</v>
       </c>
-      <c r="D11">
+      <c r="F11">
         <v>5.66</v>
       </c>
-      <c r="E11">
+      <c r="G11">
         <v>0.15</v>
       </c>
-      <c r="F11">
+      <c r="H11">
         <v>7.25</v>
       </c>
-      <c r="G11">
+      <c r="I11">
         <v>2.29</v>
       </c>
-      <c r="H11">
+      <c r="J11">
         <v>0.96</v>
-      </c>
-      <c r="I11">
-        <v>3.25</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
       </c>
       <c r="K11">
         <v>3.25</v>
@@ -2272,22 +2308,22 @@
         <v>3.25</v>
       </c>
       <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>3.25</v>
+      </c>
+      <c r="P11">
         <v>0.79</v>
       </c>
-      <c r="O11">
+      <c r="Q11">
         <v>2.46</v>
       </c>
-      <c r="P11">
+      <c r="R11">
         <v>2.46</v>
       </c>
-      <c r="Q11">
+      <c r="S11">
         <v>26.51</v>
-      </c>
-      <c r="R11">
-        <v>0.93</v>
-      </c>
-      <c r="S11">
-        <v>0.93</v>
       </c>
       <c r="T11">
         <v>0.93</v>
@@ -2295,37 +2331,43 @@
       <c r="U11">
         <v>0.93</v>
       </c>
-    </row>
-    <row r="12" spans="1:21">
+      <c r="V11">
+        <v>0.93</v>
+      </c>
+      <c r="W11">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" t="s">
-        <v>78</v>
-      </c>
-      <c r="B12">
+        <v>73</v>
+      </c>
+      <c r="B12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12">
         <v>64.95</v>
       </c>
-      <c r="C12">
+      <c r="E12">
         <v>64.95</v>
       </c>
-      <c r="D12">
+      <c r="F12">
         <v>6.35</v>
       </c>
-      <c r="E12">
+      <c r="G12">
         <v>0.16</v>
       </c>
-      <c r="F12">
+      <c r="H12">
         <v>8.710000000000001</v>
       </c>
-      <c r="G12">
+      <c r="I12">
         <v>49.73</v>
       </c>
-      <c r="H12">
+      <c r="J12">
         <v>112.57</v>
-      </c>
-      <c r="I12">
-        <v>162.3</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
       </c>
       <c r="K12">
         <v>162.3</v>
@@ -2337,22 +2379,22 @@
         <v>162.3</v>
       </c>
       <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>162.3</v>
+      </c>
+      <c r="P12">
         <v>40.91</v>
       </c>
-      <c r="O12">
+      <c r="Q12">
         <v>121.39</v>
       </c>
-      <c r="P12">
+      <c r="R12">
         <v>121.39</v>
       </c>
-      <c r="Q12">
+      <c r="S12">
         <v>26.51</v>
-      </c>
-      <c r="R12">
-        <v>45.79</v>
-      </c>
-      <c r="S12">
-        <v>45.79</v>
       </c>
       <c r="T12">
         <v>45.79</v>
@@ -2360,37 +2402,43 @@
       <c r="U12">
         <v>45.79</v>
       </c>
-    </row>
-    <row r="13" spans="1:21">
+      <c r="V12">
+        <v>45.79</v>
+      </c>
+      <c r="W12">
+        <v>45.79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" t="s">
-        <v>79</v>
-      </c>
-      <c r="B13">
+        <v>73</v>
+      </c>
+      <c r="B13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13">
         <v>27.88</v>
       </c>
-      <c r="C13">
+      <c r="E13">
         <v>27.88</v>
       </c>
-      <c r="D13">
+      <c r="F13">
         <v>6.08</v>
       </c>
-      <c r="E13">
+      <c r="G13">
         <v>0.2</v>
       </c>
-      <c r="F13">
+      <c r="H13">
         <v>7.63</v>
       </c>
-      <c r="G13">
+      <c r="I13">
         <v>13.97</v>
       </c>
-      <c r="H13">
+      <c r="J13">
         <v>0.08</v>
-      </c>
-      <c r="I13">
-        <v>14.05</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
       </c>
       <c r="K13">
         <v>14.05</v>
@@ -2402,22 +2450,22 @@
         <v>14.05</v>
       </c>
       <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>14.05</v>
+      </c>
+      <c r="P13">
         <v>3.52</v>
       </c>
-      <c r="O13">
+      <c r="Q13">
         <v>10.53</v>
       </c>
-      <c r="P13">
+      <c r="R13">
         <v>10.53</v>
       </c>
-      <c r="Q13">
+      <c r="S13">
         <v>26.51</v>
-      </c>
-      <c r="R13">
-        <v>3.97</v>
-      </c>
-      <c r="S13">
-        <v>3.97</v>
       </c>
       <c r="T13">
         <v>3.97</v>
@@ -2425,37 +2473,43 @@
       <c r="U13">
         <v>3.97</v>
       </c>
-    </row>
-    <row r="14" spans="1:21">
+      <c r="V13">
+        <v>3.97</v>
+      </c>
+      <c r="W13">
+        <v>3.97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>80</v>
-      </c>
-      <c r="B14">
+        <v>73</v>
+      </c>
+      <c r="B14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14">
         <v>27.87</v>
       </c>
-      <c r="C14">
+      <c r="E14">
         <v>27.87</v>
       </c>
-      <c r="D14">
+      <c r="F14">
         <v>9.18</v>
       </c>
-      <c r="E14">
+      <c r="G14">
         <v>0.24</v>
       </c>
-      <c r="F14">
+      <c r="H14">
         <v>9.73</v>
       </c>
-      <c r="G14">
+      <c r="I14">
         <v>8.720000000000001</v>
       </c>
-      <c r="H14">
+      <c r="J14">
         <v>0.08</v>
-      </c>
-      <c r="I14">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
       </c>
       <c r="K14">
         <v>8.800000000000001</v>
@@ -2467,22 +2521,22 @@
         <v>8.800000000000001</v>
       </c>
       <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="P14">
         <v>2.24</v>
       </c>
-      <c r="O14">
+      <c r="Q14">
         <v>6.56</v>
       </c>
-      <c r="P14">
+      <c r="R14">
         <v>6.56</v>
       </c>
-      <c r="Q14">
+      <c r="S14">
         <v>26.51</v>
-      </c>
-      <c r="R14">
-        <v>2.48</v>
-      </c>
-      <c r="S14">
-        <v>2.48</v>
       </c>
       <c r="T14">
         <v>2.48</v>
@@ -2490,64 +2544,70 @@
       <c r="U14">
         <v>2.48</v>
       </c>
-    </row>
-    <row r="15" spans="1:21">
+      <c r="V14">
+        <v>2.48</v>
+      </c>
+      <c r="W14">
+        <v>2.48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>81</v>
-      </c>
-      <c r="B15">
+        <v>73</v>
+      </c>
+      <c r="B15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15">
         <v>65.37</v>
       </c>
-      <c r="C15">
+      <c r="E15">
         <v>65.37</v>
       </c>
-      <c r="D15">
+      <c r="F15">
         <v>6.01</v>
       </c>
-      <c r="E15">
+      <c r="G15">
         <v>0.25</v>
       </c>
-      <c r="F15">
+      <c r="H15">
         <v>10.59</v>
       </c>
-      <c r="G15">
+      <c r="I15">
         <v>48.52</v>
       </c>
-      <c r="H15">
+      <c r="J15">
         <v>0.45</v>
       </c>
-      <c r="I15">
+      <c r="K15">
         <v>48.97</v>
       </c>
-      <c r="J15">
+      <c r="L15">
         <v>1.61</v>
-      </c>
-      <c r="K15">
-        <v>47.36</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
       </c>
       <c r="M15">
         <v>47.36</v>
       </c>
       <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>47.36</v>
+      </c>
+      <c r="P15">
         <v>11.58</v>
       </c>
-      <c r="O15">
+      <c r="Q15">
         <v>35.78</v>
       </c>
-      <c r="P15">
+      <c r="R15">
         <v>35.78</v>
       </c>
-      <c r="Q15">
+      <c r="S15">
         <v>26.51</v>
-      </c>
-      <c r="R15">
-        <v>13.49</v>
-      </c>
-      <c r="S15">
-        <v>13.49</v>
       </c>
       <c r="T15">
         <v>13.49</v>
@@ -2555,64 +2615,70 @@
       <c r="U15">
         <v>13.49</v>
       </c>
-    </row>
-    <row r="16" spans="1:21">
+      <c r="V15">
+        <v>13.49</v>
+      </c>
+      <c r="W15">
+        <v>13.49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" t="s">
-        <v>82</v>
-      </c>
-      <c r="B16">
+        <v>74</v>
+      </c>
+      <c r="B16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16">
         <v>40.38</v>
       </c>
-      <c r="C16">
+      <c r="E16">
         <v>40.38</v>
       </c>
-      <c r="D16">
+      <c r="F16">
         <v>6.4</v>
       </c>
-      <c r="E16">
+      <c r="G16">
         <v>0.43</v>
       </c>
-      <c r="F16">
+      <c r="H16">
         <v>38.61</v>
       </c>
-      <c r="G16">
+      <c r="I16">
         <v>-5.06</v>
       </c>
-      <c r="H16">
+      <c r="J16">
         <v>134.63</v>
       </c>
-      <c r="I16">
+      <c r="K16">
         <v>129.57</v>
       </c>
-      <c r="J16">
+      <c r="L16">
         <v>1.97</v>
-      </c>
-      <c r="K16">
-        <v>127.6</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
       </c>
       <c r="M16">
         <v>127.6</v>
       </c>
       <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>127.6</v>
+      </c>
+      <c r="P16">
         <v>35.8</v>
       </c>
-      <c r="O16">
+      <c r="Q16">
         <v>91.8</v>
       </c>
-      <c r="P16">
+      <c r="R16">
         <v>91.8</v>
       </c>
-      <c r="Q16">
+      <c r="S16">
         <v>26.64</v>
-      </c>
-      <c r="R16">
-        <v>34.61</v>
-      </c>
-      <c r="S16">
-        <v>33.41</v>
       </c>
       <c r="T16">
         <v>34.61</v>
@@ -2620,64 +2686,70 @@
       <c r="U16">
         <v>33.41</v>
       </c>
-    </row>
-    <row r="17" spans="1:21">
+      <c r="V16">
+        <v>34.61</v>
+      </c>
+      <c r="W16">
+        <v>33.41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
       <c r="A17" t="s">
-        <v>83</v>
-      </c>
-      <c r="B17">
+        <v>74</v>
+      </c>
+      <c r="B17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17">
         <v>40.38</v>
       </c>
-      <c r="C17">
+      <c r="E17">
         <v>40.38</v>
       </c>
-      <c r="D17">
+      <c r="F17">
         <v>9.43</v>
       </c>
-      <c r="E17">
+      <c r="G17">
         <v>0.54</v>
       </c>
-      <c r="F17">
+      <c r="H17">
         <v>18.23</v>
       </c>
-      <c r="G17">
+      <c r="I17">
         <v>12.18</v>
       </c>
-      <c r="H17">
+      <c r="J17">
         <v>2.42</v>
       </c>
-      <c r="I17">
+      <c r="K17">
         <v>14.6</v>
       </c>
-      <c r="J17">
+      <c r="L17">
         <v>1.99</v>
-      </c>
-      <c r="K17">
-        <v>12.61</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
       </c>
       <c r="M17">
         <v>12.61</v>
       </c>
       <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>12.61</v>
+      </c>
+      <c r="P17">
         <v>4.61</v>
       </c>
-      <c r="O17">
+      <c r="Q17">
         <v>8</v>
       </c>
-      <c r="P17">
+      <c r="R17">
         <v>8</v>
       </c>
-      <c r="Q17">
+      <c r="S17">
         <v>26.64</v>
-      </c>
-      <c r="R17">
-        <v>3</v>
-      </c>
-      <c r="S17">
-        <v>2.71</v>
       </c>
       <c r="T17">
         <v>3</v>
@@ -2685,64 +2757,70 @@
       <c r="U17">
         <v>2.71</v>
       </c>
-    </row>
-    <row r="18" spans="1:21">
+      <c r="V17">
+        <v>3</v>
+      </c>
+      <c r="W17">
+        <v>2.71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
       <c r="A18" t="s">
-        <v>84</v>
-      </c>
-      <c r="B18">
+        <v>74</v>
+      </c>
+      <c r="B18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18">
         <v>40.37</v>
       </c>
-      <c r="C18">
+      <c r="E18">
         <v>40.37</v>
       </c>
-      <c r="D18">
+      <c r="F18">
         <v>11.81</v>
       </c>
-      <c r="E18">
+      <c r="G18">
         <v>0.54</v>
       </c>
-      <c r="F18">
+      <c r="H18">
         <v>15.66</v>
       </c>
-      <c r="G18">
+      <c r="I18">
         <v>12.36</v>
       </c>
-      <c r="H18">
+      <c r="J18">
         <v>3.43</v>
       </c>
-      <c r="I18">
+      <c r="K18">
         <v>15.79</v>
       </c>
-      <c r="J18">
+      <c r="L18">
         <v>4.34</v>
-      </c>
-      <c r="K18">
-        <v>11.45</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
       </c>
       <c r="M18">
         <v>11.45</v>
       </c>
       <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>11.45</v>
+      </c>
+      <c r="P18">
         <v>5.02</v>
       </c>
-      <c r="O18">
+      <c r="Q18">
         <v>6.43</v>
       </c>
-      <c r="P18">
+      <c r="R18">
         <v>6.43</v>
       </c>
-      <c r="Q18">
+      <c r="S18">
         <v>29.51</v>
-      </c>
-      <c r="R18">
-        <v>2.3</v>
-      </c>
-      <c r="S18">
-        <v>2.18</v>
       </c>
       <c r="T18">
         <v>2.3</v>
@@ -2750,64 +2828,70 @@
       <c r="U18">
         <v>2.18</v>
       </c>
-    </row>
-    <row r="19" spans="1:21">
+      <c r="V18">
+        <v>2.3</v>
+      </c>
+      <c r="W18">
+        <v>2.18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
       <c r="A19" t="s">
-        <v>85</v>
-      </c>
-      <c r="B19">
+        <v>74</v>
+      </c>
+      <c r="B19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19">
         <v>40.38</v>
       </c>
-      <c r="C19">
+      <c r="E19">
         <v>40.38</v>
       </c>
-      <c r="D19">
+      <c r="F19">
         <v>6.81</v>
       </c>
-      <c r="E19">
+      <c r="G19">
         <v>0.54</v>
       </c>
-      <c r="F19">
+      <c r="H19">
         <v>17.92</v>
       </c>
-      <c r="G19">
+      <c r="I19">
         <v>15.11</v>
       </c>
-      <c r="H19">
+      <c r="J19">
         <v>3.29</v>
       </c>
-      <c r="I19">
+      <c r="K19">
         <v>18.4</v>
       </c>
-      <c r="J19">
+      <c r="L19">
         <v>2.65</v>
-      </c>
-      <c r="K19">
-        <v>15.75</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
       </c>
       <c r="M19">
         <v>15.75</v>
       </c>
       <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>15.75</v>
+      </c>
+      <c r="P19">
         <v>5.78</v>
       </c>
-      <c r="O19">
+      <c r="Q19">
         <v>9.970000000000001</v>
       </c>
-      <c r="P19">
+      <c r="R19">
         <v>9.970000000000001</v>
       </c>
-      <c r="Q19">
+      <c r="S19">
         <v>29.51</v>
-      </c>
-      <c r="R19">
-        <v>3.38</v>
-      </c>
-      <c r="S19">
-        <v>3.38</v>
       </c>
       <c r="T19">
         <v>3.38</v>
@@ -2815,64 +2899,70 @@
       <c r="U19">
         <v>3.38</v>
       </c>
-    </row>
-    <row r="20" spans="1:21">
+      <c r="V19">
+        <v>3.38</v>
+      </c>
+      <c r="W19">
+        <v>3.38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
       <c r="A20" t="s">
-        <v>86</v>
-      </c>
-      <c r="B20">
+        <v>75</v>
+      </c>
+      <c r="B20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20">
         <v>40.37</v>
       </c>
-      <c r="C20">
+      <c r="E20">
         <v>40.37</v>
       </c>
-      <c r="D20">
+      <c r="F20">
         <v>7.84</v>
       </c>
-      <c r="E20">
+      <c r="G20">
         <v>0.5600000000000001</v>
       </c>
-      <c r="F20">
+      <c r="H20">
         <v>25.66</v>
       </c>
-      <c r="G20">
+      <c r="I20">
         <v>6.31</v>
       </c>
-      <c r="H20">
+      <c r="J20">
         <v>136.44</v>
       </c>
-      <c r="I20">
+      <c r="K20">
         <v>142.75</v>
       </c>
-      <c r="J20">
+      <c r="L20">
         <v>3.06</v>
       </c>
-      <c r="K20">
+      <c r="M20">
         <v>139.69</v>
       </c>
-      <c r="L20">
+      <c r="N20">
         <v>-48.03</v>
       </c>
-      <c r="M20">
+      <c r="O20">
         <v>91.66</v>
       </c>
-      <c r="N20">
+      <c r="P20">
         <v>39.81</v>
       </c>
-      <c r="O20">
+      <c r="Q20">
         <v>51.85</v>
       </c>
-      <c r="P20">
+      <c r="R20">
         <v>51.85</v>
       </c>
-      <c r="Q20">
+      <c r="S20">
         <v>29.51</v>
-      </c>
-      <c r="R20">
-        <v>17.57</v>
-      </c>
-      <c r="S20">
-        <v>17.57</v>
       </c>
       <c r="T20">
         <v>17.57</v>
@@ -2880,64 +2970,70 @@
       <c r="U20">
         <v>17.57</v>
       </c>
-    </row>
-    <row r="21" spans="1:21">
+      <c r="V20">
+        <v>17.57</v>
+      </c>
+      <c r="W20">
+        <v>17.57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
       <c r="A21" t="s">
-        <v>87</v>
-      </c>
-      <c r="B21">
+        <v>75</v>
+      </c>
+      <c r="B21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21">
         <v>40.38</v>
       </c>
-      <c r="C21">
+      <c r="E21">
         <v>40.38</v>
       </c>
-      <c r="D21">
+      <c r="F21">
         <v>7.95</v>
       </c>
-      <c r="E21">
+      <c r="G21">
         <v>0.65</v>
       </c>
-      <c r="F21">
+      <c r="H21">
         <v>22.03</v>
       </c>
-      <c r="G21">
+      <c r="I21">
         <v>9.75</v>
       </c>
-      <c r="H21">
+      <c r="J21">
         <v>4.96</v>
       </c>
-      <c r="I21">
+      <c r="K21">
         <v>14.71</v>
       </c>
-      <c r="J21">
+      <c r="L21">
         <v>3.97</v>
-      </c>
-      <c r="K21">
-        <v>10.74</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
       </c>
       <c r="M21">
         <v>10.74</v>
       </c>
       <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>10.74</v>
+      </c>
+      <c r="P21">
         <v>3.16</v>
       </c>
-      <c r="O21">
+      <c r="Q21">
         <v>7.58</v>
       </c>
-      <c r="P21">
+      <c r="R21">
         <v>7.58</v>
       </c>
-      <c r="Q21">
+      <c r="S21">
         <v>29.51</v>
-      </c>
-      <c r="R21">
-        <v>2.57</v>
-      </c>
-      <c r="S21">
-        <v>2.57</v>
       </c>
       <c r="T21">
         <v>2.57</v>
@@ -2945,64 +3041,70 @@
       <c r="U21">
         <v>2.57</v>
       </c>
-    </row>
-    <row r="22" spans="1:21">
+      <c r="V21">
+        <v>2.57</v>
+      </c>
+      <c r="W21">
+        <v>2.57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
       <c r="A22" t="s">
-        <v>88</v>
-      </c>
-      <c r="B22">
+        <v>75</v>
+      </c>
+      <c r="B22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22">
         <v>40.37</v>
       </c>
-      <c r="C22">
+      <c r="E22">
         <v>40.37</v>
       </c>
-      <c r="D22">
+      <c r="F22">
         <v>14.74</v>
       </c>
-      <c r="E22">
+      <c r="G22">
         <v>0.67</v>
       </c>
-      <c r="F22">
+      <c r="H22">
         <v>16.5</v>
       </c>
-      <c r="G22">
+      <c r="I22">
         <v>8.460000000000001</v>
       </c>
-      <c r="H22">
+      <c r="J22">
         <v>7.66</v>
       </c>
-      <c r="I22">
+      <c r="K22">
         <v>16.12</v>
       </c>
-      <c r="J22">
+      <c r="L22">
         <v>3.48</v>
-      </c>
-      <c r="K22">
-        <v>12.64</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
       </c>
       <c r="M22">
         <v>12.64</v>
       </c>
       <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>12.64</v>
+      </c>
+      <c r="P22">
         <v>3.15</v>
       </c>
-      <c r="O22">
+      <c r="Q22">
         <v>9.49</v>
       </c>
-      <c r="P22">
+      <c r="R22">
         <v>9.49</v>
       </c>
-      <c r="Q22">
+      <c r="S22">
         <v>29.51</v>
-      </c>
-      <c r="R22">
-        <v>3.21</v>
-      </c>
-      <c r="S22">
-        <v>3.21</v>
       </c>
       <c r="T22">
         <v>3.21</v>
@@ -3010,64 +3112,70 @@
       <c r="U22">
         <v>3.21</v>
       </c>
-    </row>
-    <row r="23" spans="1:21">
+      <c r="V22">
+        <v>3.21</v>
+      </c>
+      <c r="W22">
+        <v>3.21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
       <c r="A23" t="s">
-        <v>89</v>
-      </c>
-      <c r="B23">
+        <v>75</v>
+      </c>
+      <c r="B23" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23">
         <v>40.38</v>
       </c>
-      <c r="C23">
+      <c r="E23">
         <v>40.38</v>
       </c>
-      <c r="D23">
+      <c r="F23">
         <v>13.35</v>
       </c>
-      <c r="E23">
+      <c r="G23">
         <v>0.7</v>
       </c>
-      <c r="F23">
+      <c r="H23">
         <v>13.22</v>
       </c>
-      <c r="G23">
+      <c r="I23">
         <v>13.11</v>
       </c>
-      <c r="H23">
+      <c r="J23">
         <v>7.13</v>
       </c>
-      <c r="I23">
+      <c r="K23">
         <v>20.24</v>
       </c>
-      <c r="J23">
+      <c r="L23">
         <v>3.86</v>
-      </c>
-      <c r="K23">
-        <v>16.38</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
       </c>
       <c r="M23">
         <v>16.38</v>
       </c>
       <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>16.38</v>
+      </c>
+      <c r="P23">
         <v>4.43</v>
       </c>
-      <c r="O23">
+      <c r="Q23">
         <v>11.95</v>
       </c>
-      <c r="P23">
+      <c r="R23">
         <v>11.95</v>
       </c>
-      <c r="Q23">
+      <c r="S23">
         <v>29.51</v>
-      </c>
-      <c r="R23">
-        <v>4.05</v>
-      </c>
-      <c r="S23">
-        <v>4.05</v>
       </c>
       <c r="T23">
         <v>4.05</v>
@@ -3075,64 +3183,70 @@
       <c r="U23">
         <v>4.05</v>
       </c>
-    </row>
-    <row r="24" spans="1:21">
+      <c r="V23">
+        <v>4.05</v>
+      </c>
+      <c r="W23">
+        <v>4.05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
       <c r="A24" t="s">
-        <v>90</v>
-      </c>
-      <c r="B24">
+        <v>76</v>
+      </c>
+      <c r="B24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24">
         <v>40.37</v>
       </c>
-      <c r="C24">
+      <c r="E24">
         <v>40.37</v>
       </c>
-      <c r="D24">
+      <c r="F24">
         <v>12.36</v>
       </c>
-      <c r="E24">
+      <c r="G24">
         <v>0.68</v>
       </c>
-      <c r="F24">
+      <c r="H24">
         <v>24.99</v>
       </c>
-      <c r="G24">
+      <c r="I24">
         <v>2.34</v>
       </c>
-      <c r="H24">
+      <c r="J24">
         <v>139.81</v>
       </c>
-      <c r="I24">
+      <c r="K24">
         <v>142.15</v>
       </c>
-      <c r="J24">
+      <c r="L24">
         <v>3.81</v>
-      </c>
-      <c r="K24">
-        <v>138.34</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
       </c>
       <c r="M24">
         <v>138.34</v>
       </c>
       <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>138.34</v>
+      </c>
+      <c r="P24">
         <v>38.04</v>
       </c>
-      <c r="O24">
+      <c r="Q24">
         <v>100.3</v>
       </c>
-      <c r="P24">
+      <c r="R24">
         <v>100.3</v>
       </c>
-      <c r="Q24">
+      <c r="S24">
         <v>33.09</v>
-      </c>
-      <c r="R24">
-        <v>32.77</v>
-      </c>
-      <c r="S24">
-        <v>32.77</v>
       </c>
       <c r="T24">
         <v>32.77</v>
@@ -3140,64 +3254,70 @@
       <c r="U24">
         <v>32.77</v>
       </c>
-    </row>
-    <row r="25" spans="1:21">
+      <c r="V24">
+        <v>32.77</v>
+      </c>
+      <c r="W24">
+        <v>32.77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
       <c r="A25" t="s">
-        <v>91</v>
-      </c>
-      <c r="B25">
+        <v>76</v>
+      </c>
+      <c r="B25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25">
         <v>40.38</v>
       </c>
-      <c r="C25">
+      <c r="E25">
         <v>40.38</v>
       </c>
-      <c r="D25">
+      <c r="F25">
         <v>19.92</v>
       </c>
-      <c r="E25">
+      <c r="G25">
         <v>0.71</v>
       </c>
-      <c r="F25">
+      <c r="H25">
         <v>18.27</v>
       </c>
-      <c r="G25">
+      <c r="I25">
         <v>1.48</v>
       </c>
-      <c r="H25">
+      <c r="J25">
         <v>10.38</v>
       </c>
-      <c r="I25">
+      <c r="K25">
         <v>11.86</v>
       </c>
-      <c r="J25">
+      <c r="L25">
         <v>4.58</v>
-      </c>
-      <c r="K25">
-        <v>7.28</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
       </c>
       <c r="M25">
         <v>7.28</v>
       </c>
       <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>7.28</v>
+      </c>
+      <c r="P25">
         <v>1.79</v>
       </c>
-      <c r="O25">
+      <c r="Q25">
         <v>5.49</v>
       </c>
-      <c r="P25">
+      <c r="R25">
         <v>5.49</v>
       </c>
-      <c r="Q25">
+      <c r="S25">
         <v>33.09</v>
-      </c>
-      <c r="R25">
-        <v>1.66</v>
-      </c>
-      <c r="S25">
-        <v>1.66</v>
       </c>
       <c r="T25">
         <v>1.66</v>
@@ -3205,69 +3325,81 @@
       <c r="U25">
         <v>1.66</v>
       </c>
-    </row>
-    <row r="26" spans="1:21">
+      <c r="V25">
+        <v>1.66</v>
+      </c>
+      <c r="W25">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
       <c r="A26" t="s">
-        <v>92</v>
-      </c>
-      <c r="B26">
+        <v>76</v>
+      </c>
+      <c r="B26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26">
         <v>40.37</v>
       </c>
-      <c r="C26">
+      <c r="E26">
         <v>40.37</v>
       </c>
-      <c r="D26">
+      <c r="F26">
         <v>18.99</v>
       </c>
-      <c r="E26">
+      <c r="G26">
         <v>0.79</v>
       </c>
-      <c r="F26">
+      <c r="H26">
         <v>23.26</v>
       </c>
-      <c r="G26">
+      <c r="I26">
         <v>-2.67</v>
       </c>
-      <c r="H26">
+      <c r="J26">
         <v>10.77</v>
       </c>
-      <c r="I26">
+      <c r="K26">
         <v>8.1</v>
       </c>
-      <c r="J26">
+      <c r="L26">
         <v>3.92</v>
-      </c>
-      <c r="K26">
-        <v>4.18</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
       </c>
       <c r="M26">
         <v>4.18</v>
       </c>
       <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>4.18</v>
+      </c>
+      <c r="P26">
         <v>2.84</v>
       </c>
-      <c r="O26">
+      <c r="Q26">
         <v>1.34</v>
       </c>
-      <c r="P26">
+      <c r="R26">
         <v>1.34</v>
       </c>
-      <c r="Q26">
+      <c r="S26">
         <v>33.09</v>
-      </c>
-      <c r="R26">
-        <v>0.41</v>
-      </c>
-      <c r="S26">
-        <v>0.41</v>
       </c>
       <c r="T26">
         <v>0.41</v>
       </c>
       <c r="U26">
+        <v>0.41</v>
+      </c>
+      <c r="V26">
+        <v>0.41</v>
+      </c>
+      <c r="W26">
         <v>0.41</v>
       </c>
     </row>
@@ -3286,58 +3418,58 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:18">
